--- a/Brothers_AMS/TemplateFiles/StandardTemplate/StandardizeCS_template.xlsx
+++ b/Brothers_AMS/TemplateFiles/StandardTemplate/StandardizeCS_template.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="Change shift" sheetId="2" r:id="rId1"/>
+    <sheet name="Standardized-CS Form" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Change shift'!$13:$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Standardized-CS Form'!$13:$13</definedName>
     <definedName name="a" localSheetId="0" hidden="1">{"'000228 出張報告書'!$A$1:$AE$60"}</definedName>
     <definedName name="a" hidden="1">{"'000228 出張報告書'!$A$1:$AE$60"}</definedName>
     <definedName name="aaa" localSheetId="0" hidden="1">{"'000228 出張報告書'!$A$1:$AE$60"}</definedName>
@@ -809,69 +809,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -895,6 +832,69 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1616,7 +1616,7 @@
   <dimension ref="A1:XEY56"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1626,7 @@
     <col min="3" max="3" width="21.140625" style="13" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" style="13" customWidth="1"/>
     <col min="5" max="6" width="14.7109375" style="13" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" style="91" customWidth="1"/>
+    <col min="7" max="8" width="11.28515625" style="70" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" style="13" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" style="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.140625" style="13" customWidth="1"/>
@@ -1634,54 +1634,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10 16379:16379" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="A1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10 16379:16379" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10 16379:16379" s="1" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="64"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10 16379:16379" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="75" t="s">
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="76"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
     </row>
     <row r="5" spans="1:10 16379:16379" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -1692,8 +1692,8 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1708,8 +1708,8 @@
       <c r="D6" s="11"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
       <c r="I6" s="10" t="s">
         <v>3</v>
       </c>
@@ -1722,8 +1722,8 @@
       <c r="D7" s="11"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
       <c r="I7" s="10"/>
       <c r="J7" s="14"/>
     </row>
@@ -1736,8 +1736,8 @@
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
       <c r="I8" s="11"/>
       <c r="J8" s="17"/>
     </row>
@@ -1750,8 +1750,8 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="11"/>
       <c r="J9" s="17"/>
     </row>
@@ -1764,8 +1764,8 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
       <c r="I10" s="11"/>
       <c r="J10" s="17"/>
     </row>
@@ -1776,8 +1776,8 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
       <c r="I11" s="11"/>
       <c r="J11" s="17"/>
     </row>
@@ -1788,8 +1788,8 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
       <c r="I12" s="20"/>
       <c r="J12" s="22"/>
     </row>
@@ -1806,14 +1806,14 @@
       <c r="D13" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="77" t="s">
+      <c r="E13" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="78"/>
-      <c r="G13" s="85" t="s">
+      <c r="F13" s="89"/>
+      <c r="G13" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="64" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="50" t="s">
@@ -1832,8 +1832,8 @@
       <c r="D14" s="27"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
       <c r="I14" s="23"/>
       <c r="J14" s="25"/>
     </row>
@@ -1846,8 +1846,8 @@
       <c r="D15" s="27"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
       <c r="I15" s="26"/>
       <c r="J15" s="27"/>
       <c r="XEY15" s="26"/>
@@ -1861,8 +1861,8 @@
       <c r="D16" s="27"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
       <c r="I16" s="26"/>
       <c r="J16" s="27"/>
     </row>
@@ -1875,8 +1875,8 @@
       <c r="D17" s="48"/>
       <c r="E17" s="54"/>
       <c r="F17" s="54"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
     </row>
@@ -1889,8 +1889,8 @@
       <c r="D18" s="48"/>
       <c r="E18" s="55"/>
       <c r="F18" s="55"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
     </row>
@@ -1903,8 +1903,8 @@
       <c r="D19" s="48"/>
       <c r="E19" s="54"/>
       <c r="F19" s="54"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
       <c r="I19" s="48"/>
       <c r="J19" s="48"/>
     </row>
@@ -1917,8 +1917,8 @@
       <c r="D20" s="48"/>
       <c r="E20" s="54"/>
       <c r="F20" s="54"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
       <c r="I20" s="48"/>
       <c r="J20" s="48"/>
     </row>
@@ -1931,8 +1931,8 @@
       <c r="D21" s="48"/>
       <c r="E21" s="54"/>
       <c r="F21" s="54"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
       <c r="I21" s="48"/>
       <c r="J21" s="28"/>
     </row>
@@ -1945,8 +1945,8 @@
       <c r="D22" s="29"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
@@ -1959,8 +1959,8 @@
       <c r="D23" s="29"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
@@ -1973,8 +1973,8 @@
       <c r="D24" s="29"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
@@ -1987,8 +1987,8 @@
       <c r="D25" s="29"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
     </row>
@@ -2001,8 +2001,8 @@
       <c r="D26" s="29"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
     </row>
@@ -2015,8 +2015,8 @@
       <c r="D27" s="29"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="I27" s="29"/>
       <c r="J27" s="29"/>
     </row>
@@ -2029,8 +2029,8 @@
       <c r="D28" s="29"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
       <c r="I28" s="29"/>
       <c r="J28" s="29"/>
     </row>
@@ -2043,8 +2043,8 @@
       <c r="D29" s="29"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
       <c r="I29" s="29"/>
       <c r="J29" s="29"/>
     </row>
@@ -2057,8 +2057,8 @@
       <c r="D30" s="29"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="88"/>
-      <c r="H30" s="88"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
     </row>
@@ -2071,8 +2071,8 @@
       <c r="D31" s="29"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="88"/>
-      <c r="H31" s="88"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
     </row>
@@ -2085,8 +2085,8 @@
       <c r="D32" s="29"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
       <c r="I32" s="29"/>
       <c r="J32" s="29"/>
     </row>
@@ -2099,8 +2099,8 @@
       <c r="D33" s="29"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="88"/>
-      <c r="H33" s="88"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
       <c r="I33" s="29"/>
       <c r="J33" s="29"/>
     </row>
@@ -2113,8 +2113,8 @@
       <c r="D34" s="29"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="88"/>
-      <c r="H34" s="88"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
       <c r="I34" s="29"/>
       <c r="J34" s="29"/>
     </row>
@@ -2127,8 +2127,8 @@
       <c r="D35" s="29"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="88"/>
-      <c r="H35" s="88"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="67"/>
       <c r="I35" s="29"/>
       <c r="J35" s="29"/>
     </row>
@@ -2141,8 +2141,8 @@
       <c r="D36" s="29"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="88"/>
-      <c r="H36" s="88"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
       <c r="I36" s="29"/>
       <c r="J36" s="29"/>
     </row>
@@ -2155,8 +2155,8 @@
       <c r="D37" s="29"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="88"/>
-      <c r="H37" s="88"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
       <c r="I37" s="29"/>
       <c r="J37" s="29"/>
     </row>
@@ -2169,8 +2169,8 @@
       <c r="D38" s="29"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
+      <c r="G38" s="67"/>
+      <c r="H38" s="67"/>
       <c r="I38" s="29"/>
       <c r="J38" s="29"/>
     </row>
@@ -2183,8 +2183,8 @@
       <c r="D39" s="29"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
-      <c r="G39" s="88"/>
-      <c r="H39" s="88"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
     </row>
@@ -2197,8 +2197,8 @@
       <c r="D40" s="29"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
       <c r="I40" s="29"/>
       <c r="J40" s="29"/>
     </row>
@@ -2211,8 +2211,8 @@
       <c r="D41" s="29"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="88"/>
-      <c r="H41" s="88"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
       <c r="I41" s="29"/>
       <c r="J41" s="29"/>
     </row>
@@ -2225,8 +2225,8 @@
       <c r="D42" s="29"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="88"/>
+      <c r="G42" s="67"/>
+      <c r="H42" s="67"/>
       <c r="I42" s="29"/>
       <c r="J42" s="29"/>
     </row>
@@ -2239,8 +2239,8 @@
       <c r="D43" s="29"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="88"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
       <c r="I43" s="29"/>
       <c r="J43" s="29"/>
     </row>
@@ -2251,8 +2251,8 @@
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
       <c r="I44" s="10"/>
       <c r="J44" s="17"/>
     </row>
@@ -2270,8 +2270,8 @@
         <v>14</v>
       </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
       <c r="I45" s="10"/>
       <c r="J45" s="17"/>
     </row>
@@ -2286,8 +2286,8 @@
         <v>16</v>
       </c>
       <c r="F46" s="35"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
+      <c r="G46" s="68"/>
+      <c r="H46" s="68"/>
       <c r="I46" s="11"/>
       <c r="J46" s="17"/>
     </row>
@@ -2298,24 +2298,24 @@
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
       <c r="F47" s="11"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
+      <c r="G47" s="68"/>
+      <c r="H47" s="68"/>
       <c r="I47" s="11"/>
       <c r="J47" s="37"/>
     </row>
     <row r="48" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="79" t="s">
+      <c r="A48" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="80"/>
+      <c r="B48" s="91"/>
       <c r="C48" s="32"/>
       <c r="D48" s="11"/>
       <c r="E48" s="51" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="57"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
       <c r="I48" s="38"/>
       <c r="J48" s="17"/>
     </row>
@@ -2330,8 +2330,8 @@
         <v>19</v>
       </c>
       <c r="F49" s="36"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
       <c r="I49" s="11"/>
       <c r="J49" s="41"/>
     </row>
@@ -2342,24 +2342,24 @@
       <c r="D50" s="11"/>
       <c r="E50" s="11"/>
       <c r="F50" s="11"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
       <c r="I50" s="36"/>
       <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
+      <c r="A51" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B51" s="61"/>
+      <c r="B51" s="72"/>
       <c r="C51" s="44"/>
       <c r="D51" s="20"/>
       <c r="E51" s="58" t="s">
         <v>21</v>
       </c>
       <c r="F51" s="59"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="21"/>
       <c r="J51" s="45"/>
     </row>
